--- a/2022-05-20.xlsx
+++ b/2022-05-20.xlsx
@@ -816,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,7 +980,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44701.32917353621</v>
+        <v>44701.32917354166</v>
       </c>
       <c r="B4" t="n">
         <v>228.3</v>
@@ -1020,6 +1020,138 @@
       </c>
       <c r="N4" t="n">
         <v>0.00082</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44701.34765578704</v>
+      </c>
+      <c r="B5" t="n">
+        <v>228.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-75.28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-16.83</v>
+      </c>
+      <c r="F5" t="n">
+        <v>77.14</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.59079</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.00079</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44701.34815947917</v>
+      </c>
+      <c r="B6" t="n">
+        <v>230.38</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-70.83</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-14.88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>72.37</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.59169</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.00169</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44701.34859122074</v>
+      </c>
+      <c r="B7" t="n">
+        <v>232.34</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-71.92</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-23.59</v>
+      </c>
+      <c r="F7" t="n">
+        <v>75.69</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.59246</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.00246</v>
       </c>
     </row>
   </sheetData>

--- a/2022-05-20.xlsx
+++ b/2022-05-20.xlsx
@@ -816,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44701.34859122074</v>
+        <v>44701.34859121528</v>
       </c>
       <c r="B7" t="n">
         <v>232.34</v>
@@ -1152,6 +1152,226 @@
       </c>
       <c r="N7" t="n">
         <v>0.00246</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44701.36003142361</v>
+      </c>
+      <c r="B8" t="n">
+        <v>229.87</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-89.2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>21.69</v>
+      </c>
+      <c r="F8" t="n">
+        <v>91.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.24</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.63093</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.0009300000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44701.36233378472</v>
+      </c>
+      <c r="B9" t="n">
+        <v>230.55</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-90.58</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-25.86</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.61104</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.00104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44701.36247766203</v>
+      </c>
+      <c r="B10" t="n">
+        <v>230.79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-88.23</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-23.69</v>
+      </c>
+      <c r="F10" t="n">
+        <v>91.36</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.61136</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.00136</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44701.3637008912</v>
+      </c>
+      <c r="B11" t="n">
+        <v>232.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-93.56999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-24.54</v>
+      </c>
+      <c r="F11" t="n">
+        <v>96.73</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.6142300000000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.00423</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>44701.36478009259</v>
+      </c>
+      <c r="B12" t="n">
+        <v>228.74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-72.7</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-14.28</v>
+      </c>
+      <c r="F12" t="n">
+        <v>74.09</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.61619</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.00619</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1281,6 +1501,1018 @@
       </c>
       <c r="L2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44701.3626455324</v>
+      </c>
+      <c r="B3" t="n">
+        <v>231.54</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-88.20999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-27.68</v>
+      </c>
+      <c r="F3" t="n">
+        <v>92.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0017</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.0017</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44701.36278954861</v>
+      </c>
+      <c r="B4" t="n">
+        <v>230.08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-86.93000000000001</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-26.9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>91</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00202</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00202</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44701.3629334375</v>
+      </c>
+      <c r="B5" t="n">
+        <v>230.05</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-91.94</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-22.75</v>
+      </c>
+      <c r="F5" t="n">
+        <v>94.72</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00235</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.00235</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44701.36307731482</v>
+      </c>
+      <c r="B6" t="n">
+        <v>229.13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-94.69</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-26.88</v>
+      </c>
+      <c r="F6" t="n">
+        <v>98.44</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.00269</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.00269</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44701.3638687037</v>
+      </c>
+      <c r="B7" t="n">
+        <v>229.04</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-86.83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-21.76</v>
+      </c>
+      <c r="F7" t="n">
+        <v>89.52</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.00441</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.00441</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44701.3640125926</v>
+      </c>
+      <c r="B8" t="n">
+        <v>228.06</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-91.79000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-27.39</v>
+      </c>
+      <c r="F8" t="n">
+        <v>95.79000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.00474</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.00474</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44701.36415648148</v>
+      </c>
+      <c r="B9" t="n">
+        <v>229.26</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-115.58</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-27.69</v>
+      </c>
+      <c r="F9" t="n">
+        <v>118.85</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.00516</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.00516</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44701.36430040509</v>
+      </c>
+      <c r="B10" t="n">
+        <v>230.51</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-111.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-26.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>114.75</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.00556</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.00556</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44701.36444428241</v>
+      </c>
+      <c r="B11" t="n">
+        <v>228.43</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-98.36</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-25.81</v>
+      </c>
+      <c r="F11" t="n">
+        <v>101.69</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.00591</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.00591</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>44701.36458828704</v>
+      </c>
+      <c r="B12" t="n">
+        <v>230.55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-76.44</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16.37</v>
+      </c>
+      <c r="F12" t="n">
+        <v>78.18000000000001</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.26</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.98</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.00619</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.00619</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>44701.36494796296</v>
+      </c>
+      <c r="B13" t="n">
+        <v>228.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-85.23999999999999</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-20.89</v>
+      </c>
+      <c r="F13" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.00696</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.00696</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>44701.36509188658</v>
+      </c>
+      <c r="B14" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-73.33</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="F14" t="n">
+        <v>76.25</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.00722</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.00722</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>44701.36523587963</v>
+      </c>
+      <c r="B15" t="n">
+        <v>229.65</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-73.34</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-18.58</v>
+      </c>
+      <c r="F15" t="n">
+        <v>75.66</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.00749</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.00749</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>44701.36537976852</v>
+      </c>
+      <c r="B16" t="n">
+        <v>229.88</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-82.47</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-20.59</v>
+      </c>
+      <c r="F16" t="n">
+        <v>85</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.00779</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.00779</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>44701.36552356482</v>
+      </c>
+      <c r="B17" t="n">
+        <v>229.56</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-73.83</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-16.58</v>
+      </c>
+      <c r="F17" t="n">
+        <v>75.67</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.00805</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.00805</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>44701.36566752315</v>
+      </c>
+      <c r="B18" t="n">
+        <v>228.19</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-76.73999999999999</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-16.59</v>
+      </c>
+      <c r="F18" t="n">
+        <v>78.51000000000001</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.008330000000000001</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.008330000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>44701.36581142361</v>
+      </c>
+      <c r="B19" t="n">
+        <v>230.47</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-76.51000000000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-20.45</v>
+      </c>
+      <c r="F19" t="n">
+        <v>79.2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0086</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.0086</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>44701.36595526621</v>
+      </c>
+      <c r="B20" t="n">
+        <v>231.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-71.20999999999999</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-20.36</v>
+      </c>
+      <c r="F20" t="n">
+        <v>74.06999999999999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.00886</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.00886</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>44701.36609918981</v>
+      </c>
+      <c r="B21" t="n">
+        <v>230.42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-73.28</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-24.44</v>
+      </c>
+      <c r="F21" t="n">
+        <v>77.25</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.00912</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.00912</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>44701.36624320602</v>
+      </c>
+      <c r="B22" t="n">
+        <v>230.46</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-82.89</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-21.15</v>
+      </c>
+      <c r="F22" t="n">
+        <v>85.55</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.00942</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.00942</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>44701.36638701389</v>
+      </c>
+      <c r="B23" t="n">
+        <v>230.35</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-83.92</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-23.17</v>
+      </c>
+      <c r="F23" t="n">
+        <v>87.06</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.009730000000000001</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.009730000000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>44701.36653087963</v>
+      </c>
+      <c r="B24" t="n">
+        <v>229.92</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-73.34</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-13.51</v>
+      </c>
+      <c r="F24" t="n">
+        <v>74.56999999999999</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.009990000000000001</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.009990000000000001</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>44701.36667487268</v>
+      </c>
+      <c r="B25" t="n">
+        <v>230.27</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-76.28</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-17.47</v>
+      </c>
+      <c r="F25" t="n">
+        <v>78.25</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.01027</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.01027</v>
       </c>
     </row>
   </sheetData>
@@ -1294,7 +2526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1410,6 +2642,358 @@
       </c>
       <c r="L2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44701.36202195602</v>
+      </c>
+      <c r="B3" t="n">
+        <v>229.95</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-91.14</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-22.87</v>
+      </c>
+      <c r="F3" t="n">
+        <v>93.95999999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.00033</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.00033</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>44701.36216581018</v>
+      </c>
+      <c r="B4" t="n">
+        <v>228.28</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-86.56</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-26.18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>90.43000000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.00065</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>44701.36324508102</v>
+      </c>
+      <c r="B5" t="n">
+        <v>230.98</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-92.92</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-18.98</v>
+      </c>
+      <c r="F5" t="n">
+        <v>94.84</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.00316</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.00316</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>44701.36338898148</v>
+      </c>
+      <c r="B6" t="n">
+        <v>230.41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-91.39</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-26.81</v>
+      </c>
+      <c r="F6" t="n">
+        <v>95.23999999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.00349</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.00349</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>44701.36353292824</v>
+      </c>
+      <c r="B7" t="n">
+        <v>228.65</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-86.63</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-20.69</v>
+      </c>
+      <c r="F7" t="n">
+        <v>89.06999999999999</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0038</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.0038</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>44701.36684268519</v>
+      </c>
+      <c r="B8" t="n">
+        <v>230.87</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-73.66</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-27.51</v>
+      </c>
+      <c r="F8" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.00991</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.00991</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>44701.36698652778</v>
+      </c>
+      <c r="B9" t="n">
+        <v>229.15</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-78.58</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-22.27</v>
+      </c>
+      <c r="F9" t="n">
+        <v>81.68000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.01019</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.01019</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>44701.36713042961</v>
+      </c>
+      <c r="B10" t="n">
+        <v>230.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-75.20999999999999</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-19.04</v>
+      </c>
+      <c r="F10" t="n">
+        <v>77.58</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01046</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.01046</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +3833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2470,6 +4054,113 @@
       </c>
       <c r="L2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44701.36478357639</v>
+      </c>
+      <c r="B3" t="n">
+        <v>232.1033628964252</v>
+      </c>
+      <c r="C3" t="n">
+        <v>231.448921171157</v>
+      </c>
+      <c r="D3" t="n">
+        <v>230.7944794458887</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4167659114064202</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.4126763793075037</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4085868472085871</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-88.23122858757</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-89.40613163985549</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-90.58103469214096</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-23.68685225300729</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-24.1119639271656</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-24.53707560132392</v>
+      </c>
+      <c r="N3" t="n">
+        <v>96.73276957802376</v>
+      </c>
+      <c r="O3" t="n">
+        <v>95.46609980505231</v>
+      </c>
+      <c r="P3" t="n">
+        <v>94.19943003208085</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2602321192343994</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2458313435479251</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.2314305678614508</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.8739579780328223</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.871277657258658</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.8685973364844938</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.2884002358501814</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.2787156599343195</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.2690310840184575</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6245047932409016</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.5974930732542701</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.5704813532676387</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4.932493145846093</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.700995288043231</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4.469497430240367</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.6161916336243178</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +4174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2704,6 +4395,113 @@
       </c>
       <c r="L2" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>44701.36459151621</v>
+      </c>
+      <c r="B3" t="n">
+        <v>231.5374159192055</v>
+      </c>
+      <c r="C3" t="n">
+        <v>231.0217647251069</v>
+      </c>
+      <c r="D3" t="n">
+        <v>230.5061135310084</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.518419176344978</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.5081133605094645</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.4978075446739509</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-86.82979506936887</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-86.87943952682802</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-86.92908398428717</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-21.76289753699552</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-22.25648356394721</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-22.7500695908989</v>
+      </c>
+      <c r="N3" t="n">
+        <v>118.8544775686283</v>
+      </c>
+      <c r="O3" t="n">
+        <v>116.8010799889173</v>
+      </c>
+      <c r="P3" t="n">
+        <v>114.7476824092063</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="S3" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.2337519180090225</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.2326207681939038</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.231489618378785</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.8670246192964746</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.865610356989864</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.8641960946832534</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.6335272178058623</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.6295516391358065</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.6255760604657506</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>4.897436839457907</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.879121056319327</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4.860805273180747</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0.006190790833434922</v>
       </c>
     </row>
   </sheetData>

--- a/2022-05-20.xlsx
+++ b/2022-05-20.xlsx
@@ -816,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -936,442 +936,618 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44701.32900835648</v>
+        <v>44701.89608567129</v>
       </c>
       <c r="B3" t="n">
-        <v>228.26</v>
+        <v>322.52</v>
       </c>
       <c r="C3" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="D3" t="n">
-        <v>-95.89</v>
+        <v>-117.23</v>
       </c>
       <c r="E3" t="n">
-        <v>24.92</v>
+        <v>-44.8</v>
       </c>
       <c r="F3" t="n">
-        <v>99.08</v>
+        <v>122.07</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.97</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00045</v>
+        <v>0.0027</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00045</v>
+        <v>0.0027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44701.32917354166</v>
+        <v>44701.89896408565</v>
       </c>
       <c r="B4" t="n">
-        <v>228.3</v>
+        <v>227.98</v>
       </c>
       <c r="C4" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="D4" t="n">
-        <v>-91.45</v>
+        <v>-102.43</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.12</v>
+        <v>-26.55</v>
       </c>
       <c r="F4" t="n">
-        <v>93.43000000000001</v>
+        <v>105.82</v>
       </c>
       <c r="G4" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="H4" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="I4" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="J4" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="K4" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="L4" t="n">
-        <v>4.71</v>
+        <v>4.29</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00082</v>
+        <v>0.00038</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00082</v>
+        <v>0.00038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44701.34765578704</v>
+        <v>44701.89910799768</v>
       </c>
       <c r="B5" t="n">
-        <v>228.68</v>
+        <v>226.92</v>
       </c>
       <c r="C5" t="n">
-        <v>0.34</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>-75.28</v>
+        <v>-110.46</v>
       </c>
       <c r="E5" t="n">
-        <v>-16.83</v>
+        <v>-27.99</v>
       </c>
       <c r="F5" t="n">
-        <v>77.14</v>
+        <v>113.96</v>
       </c>
       <c r="G5" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="H5" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="I5" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="J5" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="K5" t="n">
-        <v>0.61</v>
+        <v>0.55</v>
       </c>
       <c r="L5" t="n">
-        <v>4.93</v>
+        <v>4.32</v>
       </c>
       <c r="M5" t="n">
-        <v>0.59079</v>
+        <v>0.00078</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00079</v>
+        <v>0.00078</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44701.34815947917</v>
+        <v>44701.89925190972</v>
       </c>
       <c r="B6" t="n">
-        <v>230.38</v>
+        <v>227.85</v>
       </c>
       <c r="C6" t="n">
-        <v>0.31</v>
+        <v>0.46</v>
       </c>
       <c r="D6" t="n">
-        <v>-70.83</v>
+        <v>-101.9</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.88</v>
+        <v>-25.37</v>
       </c>
       <c r="F6" t="n">
-        <v>72.37</v>
+        <v>105.01</v>
       </c>
       <c r="G6" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
       <c r="H6" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="I6" t="n">
         <v>0.86</v>
       </c>
       <c r="J6" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="K6" t="n">
         <v>0.59</v>
       </c>
       <c r="L6" t="n">
-        <v>4.69</v>
+        <v>4.18</v>
       </c>
       <c r="M6" t="n">
-        <v>0.59169</v>
+        <v>0.00115</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00169</v>
+        <v>0.00115</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44701.34859121528</v>
+        <v>44701.89939586806</v>
       </c>
       <c r="B7" t="n">
-        <v>232.34</v>
+        <v>229.76</v>
       </c>
       <c r="C7" t="n">
-        <v>0.33</v>
+        <v>0.45</v>
       </c>
       <c r="D7" t="n">
-        <v>-71.92</v>
+        <v>-100.18</v>
       </c>
       <c r="E7" t="n">
-        <v>-23.59</v>
+        <v>-26.14</v>
       </c>
       <c r="F7" t="n">
-        <v>75.69</v>
+        <v>103.54</v>
       </c>
       <c r="G7" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="H7" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="I7" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="J7" t="n">
-        <v>0.24</v>
+        <v>0.28</v>
       </c>
       <c r="K7" t="n">
-        <v>0.63</v>
+        <v>0.55</v>
       </c>
       <c r="L7" t="n">
-        <v>4.98</v>
+        <v>4.25</v>
       </c>
       <c r="M7" t="n">
-        <v>0.59246</v>
+        <v>0.00151</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00246</v>
+        <v>0.00151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44701.36003142361</v>
+        <v>44701.89954005787</v>
       </c>
       <c r="B8" t="n">
-        <v>229.87</v>
+        <v>228.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="D8" t="n">
-        <v>-89.2</v>
+        <v>-104.11</v>
       </c>
       <c r="E8" t="n">
-        <v>21.69</v>
+        <v>-25.24</v>
       </c>
       <c r="F8" t="n">
-        <v>91.8</v>
+        <v>107.12</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.24</v>
+        <v>0.26</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.97</v>
+        <v>0.97</v>
       </c>
       <c r="I8" t="n">
         <v>0.85</v>
       </c>
       <c r="J8" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="K8" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.42</v>
       </c>
       <c r="M8" t="n">
-        <v>0.63093</v>
+        <v>0.00188</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.00188</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44701.36233378472</v>
+        <v>44701.90126667824</v>
       </c>
       <c r="B9" t="n">
-        <v>230.55</v>
+        <v>229.42</v>
       </c>
       <c r="C9" t="n">
-        <v>0.41</v>
+        <v>0.44</v>
       </c>
       <c r="D9" t="n">
-        <v>-90.58</v>
+        <v>-97.81999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>-25.86</v>
+        <v>-24.44</v>
       </c>
       <c r="F9" t="n">
-        <v>94.2</v>
+        <v>100.82</v>
       </c>
       <c r="G9" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="H9" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I9" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="J9" t="n">
-        <v>0.24</v>
+        <v>0.31</v>
       </c>
       <c r="K9" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="L9" t="n">
-        <v>4.93</v>
+        <v>3.95</v>
       </c>
       <c r="M9" t="n">
-        <v>0.61104</v>
+        <v>0.62219</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00104</v>
+        <v>0.00219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44701.36247766203</v>
+        <v>44701.90141075232</v>
       </c>
       <c r="B10" t="n">
-        <v>230.79</v>
+        <v>228.67</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-88.23</v>
+        <v>-99.61</v>
       </c>
       <c r="E10" t="n">
-        <v>-23.69</v>
+        <v>-25.56</v>
       </c>
       <c r="F10" t="n">
-        <v>91.36</v>
+        <v>102.83</v>
       </c>
       <c r="G10" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="H10" t="n">
         <v>0.97</v>
       </c>
       <c r="I10" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J10" t="n">
-        <v>0.29</v>
+        <v>0.32</v>
       </c>
       <c r="K10" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="L10" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="M10" t="n">
-        <v>0.61136</v>
+        <v>0.62255</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00136</v>
+        <v>0.00255</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44701.3637008912</v>
+        <v>44701.90155447917</v>
       </c>
       <c r="B11" t="n">
-        <v>232.1</v>
+        <v>228.31</v>
       </c>
       <c r="C11" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="D11" t="n">
-        <v>-93.56999999999999</v>
+        <v>-96.13</v>
       </c>
       <c r="E11" t="n">
-        <v>-24.54</v>
+        <v>-29.81</v>
       </c>
       <c r="F11" t="n">
-        <v>96.73</v>
+        <v>100.65</v>
       </c>
       <c r="G11" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="H11" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="I11" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J11" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="K11" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
       <c r="L11" t="n">
-        <v>4.47</v>
+        <v>3.94</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6142300000000001</v>
+        <v>0.6228900000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00423</v>
+        <v>0.00289</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44701.36478009259</v>
+        <v>44701.90169834491</v>
       </c>
       <c r="B12" t="n">
-        <v>228.74</v>
+        <v>227.55</v>
       </c>
       <c r="C12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-104.06</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-27.98</v>
+      </c>
+      <c r="F12" t="n">
+        <v>107.76</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.62327</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.00327</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>44701.90184263889</v>
+      </c>
+      <c r="B13" t="n">
+        <v>227.79</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-101.84</v>
+      </c>
+      <c r="E13" t="n">
+        <v>28.01</v>
+      </c>
+      <c r="F13" t="n">
+        <v>105.62</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.62364</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.00364</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>44701.9019862037</v>
+      </c>
+      <c r="B14" t="n">
+        <v>229.27</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-100.86</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-26.34</v>
+      </c>
+      <c r="F14" t="n">
+        <v>104.24</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>44701.90213019676</v>
+      </c>
+      <c r="B15" t="n">
+        <v>228.34</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-94.68000000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-27.79</v>
+      </c>
+      <c r="F15" t="n">
+        <v>98.68000000000001</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.32</v>
       </c>
-      <c r="D12" t="n">
-        <v>-72.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>-14.28</v>
-      </c>
-      <c r="F12" t="n">
-        <v>74.09</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="J12" t="n">
+      <c r="K15" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.62434</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.00434</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>44701.90227405092</v>
+      </c>
+      <c r="B16" t="n">
+        <v>226.93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-93.90000000000001</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>97.15000000000001</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.28</v>
       </c>
-      <c r="K12" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.61619</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.00619</v>
+      <c r="H16" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.62468</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.00468</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1505,28 +1681,28 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44701.3626455324</v>
+        <v>44701.37336641204</v>
       </c>
       <c r="B3" t="n">
-        <v>231.54</v>
+        <v>226.76</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="D3" t="n">
-        <v>-88.20999999999999</v>
+        <v>-71.73999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>-27.68</v>
+        <v>-14.82</v>
       </c>
       <c r="F3" t="n">
-        <v>92.45</v>
+        <v>73.26000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="H3" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="I3" t="n">
         <v>0.86</v>
@@ -1535,221 +1711,221 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="L3" t="n">
-        <v>4.9</v>
+        <v>4.84</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0017</v>
+        <v>0.00027</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0017</v>
+        <v>0.00027</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44701.36278954861</v>
+        <v>44701.3735103588</v>
       </c>
       <c r="B4" t="n">
-        <v>230.08</v>
+        <v>228.65</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="D4" t="n">
-        <v>-86.93000000000001</v>
+        <v>-70.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>-26.9</v>
+        <v>-15.52</v>
       </c>
       <c r="F4" t="n">
-        <v>91</v>
+        <v>72.09</v>
       </c>
       <c r="G4" t="n">
-        <v>0.23</v>
+        <v>0.27</v>
       </c>
       <c r="H4" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="I4" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.61</v>
+        <v>0.53</v>
       </c>
       <c r="L4" t="n">
-        <v>4.86</v>
+        <v>4.39</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00202</v>
+        <v>0.00053</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00202</v>
+        <v>0.00053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44701.3629334375</v>
+        <v>44701.37365423611</v>
       </c>
       <c r="B5" t="n">
-        <v>230.05</v>
+        <v>229.88</v>
       </c>
       <c r="C5" t="n">
-        <v>0.41</v>
+        <v>0.34</v>
       </c>
       <c r="D5" t="n">
-        <v>-91.94</v>
+        <v>-76.26000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>-22.75</v>
+        <v>-17.06</v>
       </c>
       <c r="F5" t="n">
-        <v>94.72</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="G5" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="H5" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I5" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="L5" t="n">
-        <v>4.58</v>
+        <v>4.97</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00235</v>
+        <v>0.0008</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00235</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44701.36307731482</v>
+        <v>44701.37379836805</v>
       </c>
       <c r="B6" t="n">
-        <v>229.13</v>
+        <v>226.53</v>
       </c>
       <c r="C6" t="n">
-        <v>0.43</v>
+        <v>0.31</v>
       </c>
       <c r="D6" t="n">
-        <v>-94.69</v>
+        <v>-69.53</v>
       </c>
       <c r="E6" t="n">
-        <v>-26.88</v>
+        <v>-15.92</v>
       </c>
       <c r="F6" t="n">
-        <v>98.44</v>
+        <v>71.33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="H6" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I6" t="n">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.57</v>
+        <v>0.52</v>
       </c>
       <c r="L6" t="n">
-        <v>4.55</v>
+        <v>4.49</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00269</v>
+        <v>0.00105</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00269</v>
+        <v>0.00105</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44701.3638687037</v>
+        <v>44701.37394209491</v>
       </c>
       <c r="B7" t="n">
-        <v>229.04</v>
+        <v>227</v>
       </c>
       <c r="C7" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
       <c r="D7" t="n">
-        <v>-86.83</v>
+        <v>-74.22</v>
       </c>
       <c r="E7" t="n">
-        <v>-21.76</v>
+        <v>-17.97</v>
       </c>
       <c r="F7" t="n">
-        <v>89.52</v>
+        <v>76.37</v>
       </c>
       <c r="G7" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="H7" t="n">
         <v>0.97</v>
       </c>
       <c r="I7" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="L7" t="n">
-        <v>4.61</v>
+        <v>5.17</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00441</v>
+        <v>0.00132</v>
       </c>
       <c r="N7" t="n">
-        <v>0.00441</v>
+        <v>0.00132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44701.3640125926</v>
+        <v>44701.37408599537</v>
       </c>
       <c r="B8" t="n">
-        <v>228.06</v>
+        <v>228.37</v>
       </c>
       <c r="C8" t="n">
-        <v>0.42</v>
+        <v>0.31</v>
       </c>
       <c r="D8" t="n">
-        <v>-91.79000000000001</v>
+        <v>-69.64</v>
       </c>
       <c r="E8" t="n">
-        <v>-27.39</v>
+        <v>-15.2</v>
       </c>
       <c r="F8" t="n">
-        <v>95.79000000000001</v>
+        <v>71.28</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="H8" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="I8" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1758,39 +1934,39 @@
         <v>0.58</v>
       </c>
       <c r="L8" t="n">
-        <v>4.6</v>
+        <v>4.97</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00474</v>
+        <v>0.00157</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00474</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44701.36415648148</v>
+        <v>44701.3742299537</v>
       </c>
       <c r="B9" t="n">
-        <v>229.26</v>
+        <v>227.88</v>
       </c>
       <c r="C9" t="n">
-        <v>0.52</v>
+        <v>0.31</v>
       </c>
       <c r="D9" t="n">
-        <v>-115.58</v>
+        <v>-69.52</v>
       </c>
       <c r="E9" t="n">
-        <v>-27.69</v>
+        <v>-13.48</v>
       </c>
       <c r="F9" t="n">
-        <v>118.85</v>
+        <v>70.81999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.29</v>
+        <v>0.24</v>
       </c>
       <c r="H9" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I9" t="n">
         <v>0.85</v>
@@ -1802,165 +1978,165 @@
         <v>0.63</v>
       </c>
       <c r="L9" t="n">
-        <v>4.09</v>
+        <v>4.85</v>
       </c>
       <c r="M9" t="n">
-        <v>0.00516</v>
+        <v>0.00182</v>
       </c>
       <c r="N9" t="n">
-        <v>0.00516</v>
+        <v>0.00182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44701.36430040509</v>
+        <v>44701.37437375</v>
       </c>
       <c r="B10" t="n">
-        <v>230.51</v>
+        <v>230.18</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5</v>
+        <v>0.32</v>
       </c>
       <c r="D10" t="n">
-        <v>-111.7</v>
+        <v>-72.29000000000001</v>
       </c>
       <c r="E10" t="n">
-        <v>-26.25</v>
+        <v>16.6</v>
       </c>
       <c r="F10" t="n">
-        <v>114.75</v>
+        <v>74.18000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>0.26</v>
+        <v>-0.26</v>
       </c>
       <c r="H10" t="n">
-        <v>0.97</v>
+        <v>-0.97</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.61</v>
+        <v>0.51</v>
       </c>
       <c r="L10" t="n">
         <v>4.54</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00556</v>
+        <v>0.00208</v>
       </c>
       <c r="N10" t="n">
-        <v>0.00556</v>
+        <v>0.00208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>44701.36444428241</v>
+        <v>44701.37451767361</v>
       </c>
       <c r="B11" t="n">
-        <v>228.43</v>
+        <v>228.46</v>
       </c>
       <c r="C11" t="n">
-        <v>0.45</v>
+        <v>0.31</v>
       </c>
       <c r="D11" t="n">
-        <v>-98.36</v>
+        <v>-69.73</v>
       </c>
       <c r="E11" t="n">
-        <v>-25.81</v>
+        <v>-13.89</v>
       </c>
       <c r="F11" t="n">
-        <v>101.69</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="H11" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I11" t="n">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0.61</v>
+        <v>0.59</v>
       </c>
       <c r="L11" t="n">
-        <v>4.46</v>
+        <v>4.84</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00591</v>
+        <v>0.00233</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00591</v>
+        <v>0.00233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>44701.36458828704</v>
+        <v>44701.37466162037</v>
       </c>
       <c r="B12" t="n">
-        <v>230.55</v>
+        <v>228.12</v>
       </c>
       <c r="C12" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="D12" t="n">
-        <v>-76.44</v>
+        <v>-72.34</v>
       </c>
       <c r="E12" t="n">
-        <v>16.37</v>
+        <v>-15.31</v>
       </c>
       <c r="F12" t="n">
-        <v>78.18000000000001</v>
+        <v>73.95</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.26</v>
+        <v>0.24</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.98</v>
+        <v>0.98</v>
       </c>
       <c r="I12" t="n">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.54</v>
+        <v>0.6</v>
       </c>
       <c r="L12" t="n">
-        <v>4.51</v>
+        <v>4.81</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00619</v>
+        <v>0.00259</v>
       </c>
       <c r="N12" t="n">
-        <v>0.00619</v>
+        <v>0.00259</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>44701.36494796296</v>
+        <v>44701.37480548611</v>
       </c>
       <c r="B13" t="n">
-        <v>228.6</v>
+        <v>228.69</v>
       </c>
       <c r="C13" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="D13" t="n">
-        <v>-85.23999999999999</v>
+        <v>-73.23</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.89</v>
+        <v>-18.31</v>
       </c>
       <c r="F13" t="n">
-        <v>87.76000000000001</v>
+        <v>75.48</v>
       </c>
       <c r="G13" t="n">
         <v>0.27</v>
@@ -1969,133 +2145,133 @@
         <v>0.97</v>
       </c>
       <c r="I13" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L13" t="n">
         <v>4.39</v>
       </c>
       <c r="M13" t="n">
-        <v>0.00696</v>
+        <v>0.00286</v>
       </c>
       <c r="N13" t="n">
-        <v>0.00696</v>
+        <v>0.00286</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>44701.36509188658</v>
+        <v>44701.37494943287</v>
       </c>
       <c r="B14" t="n">
-        <v>229.6</v>
+        <v>226.99</v>
       </c>
       <c r="C14" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="D14" t="n">
-        <v>-73.33</v>
+        <v>-68.90000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.9</v>
+        <v>-17.06</v>
       </c>
       <c r="F14" t="n">
-        <v>76.25</v>
+        <v>70.98</v>
       </c>
       <c r="G14" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="H14" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I14" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
       <c r="L14" t="n">
-        <v>4.43</v>
+        <v>4.94</v>
       </c>
       <c r="M14" t="n">
-        <v>0.00722</v>
+        <v>0.00311</v>
       </c>
       <c r="N14" t="n">
-        <v>0.00722</v>
+        <v>0.00311</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>44701.36523587963</v>
+        <v>44701.89531822917</v>
       </c>
       <c r="B15" t="n">
-        <v>229.65</v>
+        <v>228.25</v>
       </c>
       <c r="C15" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="D15" t="n">
-        <v>-73.34</v>
+        <v>-80.04000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.58</v>
+        <v>-19.5</v>
       </c>
       <c r="F15" t="n">
-        <v>75.66</v>
+        <v>82.39</v>
       </c>
       <c r="G15" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
       <c r="H15" t="n">
         <v>0.97</v>
       </c>
       <c r="I15" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="L15" t="n">
-        <v>4.36</v>
+        <v>4.15</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00749</v>
+        <v>0.58031</v>
       </c>
       <c r="N15" t="n">
-        <v>0.00749</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>44701.36537976852</v>
+        <v>44701.89546222222</v>
       </c>
       <c r="B16" t="n">
-        <v>229.88</v>
+        <v>228.83</v>
       </c>
       <c r="C16" t="n">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="D16" t="n">
-        <v>-82.47</v>
+        <v>-78.29000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.59</v>
+        <v>-20.47</v>
       </c>
       <c r="F16" t="n">
-        <v>85</v>
+        <v>80.92</v>
       </c>
       <c r="G16" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0.97</v>
@@ -2110,215 +2286,215 @@
         <v>0.58</v>
       </c>
       <c r="L16" t="n">
-        <v>4.39</v>
+        <v>3.97</v>
       </c>
       <c r="M16" t="n">
-        <v>0.00779</v>
+        <v>0.5805900000000001</v>
       </c>
       <c r="N16" t="n">
-        <v>0.00779</v>
+        <v>0.00059</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>44701.36552356482</v>
+        <v>44701.89560607639</v>
       </c>
       <c r="B17" t="n">
-        <v>229.56</v>
+        <v>227.88</v>
       </c>
       <c r="C17" t="n">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="D17" t="n">
-        <v>-73.83</v>
+        <v>-78.17</v>
       </c>
       <c r="E17" t="n">
-        <v>-16.58</v>
+        <v>-21.43</v>
       </c>
       <c r="F17" t="n">
-        <v>75.67</v>
+        <v>81.05</v>
       </c>
       <c r="G17" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="H17" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="I17" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="L17" t="n">
-        <v>4.39</v>
+        <v>3.94</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00805</v>
+        <v>0.58087</v>
       </c>
       <c r="N17" t="n">
-        <v>0.00805</v>
+        <v>0.00087</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>44701.36566752315</v>
+        <v>44701.89574994213</v>
       </c>
       <c r="B18" t="n">
-        <v>228.19</v>
+        <v>229.9</v>
       </c>
       <c r="C18" t="n">
-        <v>0.34</v>
+        <v>0.39</v>
       </c>
       <c r="D18" t="n">
-        <v>-76.73999999999999</v>
+        <v>-84.78</v>
       </c>
       <c r="E18" t="n">
-        <v>-16.59</v>
+        <v>-25.63</v>
       </c>
       <c r="F18" t="n">
-        <v>78.51000000000001</v>
+        <v>88.56999999999999</v>
       </c>
       <c r="G18" t="n">
-        <v>0.27</v>
+        <v>0.29</v>
       </c>
       <c r="H18" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="I18" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.63</v>
+        <v>0.58</v>
       </c>
       <c r="L18" t="n">
-        <v>4.31</v>
+        <v>4.07</v>
       </c>
       <c r="M18" t="n">
-        <v>0.008330000000000001</v>
+        <v>0.58118</v>
       </c>
       <c r="N18" t="n">
-        <v>0.008330000000000001</v>
+        <v>0.00118</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>44701.36581142361</v>
+        <v>44701.89589386574</v>
       </c>
       <c r="B19" t="n">
-        <v>230.47</v>
+        <v>226.47</v>
       </c>
       <c r="C19" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
       <c r="D19" t="n">
-        <v>-76.51000000000001</v>
+        <v>-76.20999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.45</v>
+        <v>-20.8</v>
       </c>
       <c r="F19" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="G19" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="I19" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0.58</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L19" t="n">
-        <v>4.31</v>
+        <v>3.96</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0086</v>
+        <v>0.58145</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0086</v>
+        <v>0.00145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>44701.36595526621</v>
+        <v>44701.89610960648</v>
       </c>
       <c r="B20" t="n">
-        <v>231.2</v>
+        <v>324.05</v>
       </c>
       <c r="C20" t="n">
-        <v>0.32</v>
+        <v>0.38</v>
       </c>
       <c r="D20" t="n">
-        <v>-71.20999999999999</v>
+        <v>-117.79</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.36</v>
+        <v>-71.58</v>
       </c>
       <c r="F20" t="n">
-        <v>74.06999999999999</v>
+        <v>122.65</v>
       </c>
       <c r="G20" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="H20" t="n">
         <v>0.96</v>
       </c>
       <c r="I20" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>5.14</v>
+        <v>3.96</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00886</v>
+        <v>0.58209</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00886</v>
+        <v>0.00209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>44701.36609918981</v>
+        <v>44701.89970761574</v>
       </c>
       <c r="B21" t="n">
-        <v>230.42</v>
+        <v>229.41</v>
       </c>
       <c r="C21" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="D21" t="n">
-        <v>-73.28</v>
+        <v>-99.5</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.44</v>
+        <v>-28.92</v>
       </c>
       <c r="F21" t="n">
-        <v>77.25</v>
+        <v>103.61</v>
       </c>
       <c r="G21" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="H21" t="n">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="I21" t="n">
         <v>0.87</v>
@@ -2327,192 +2503,808 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.58</v>
       </c>
       <c r="L21" t="n">
-        <v>4.44</v>
+        <v>4.19</v>
       </c>
       <c r="M21" t="n">
-        <v>0.00912</v>
+        <v>0.5622200000000001</v>
       </c>
       <c r="N21" t="n">
-        <v>0.00912</v>
+        <v>0.00222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>44701.36624320602</v>
+        <v>44701.89985155092</v>
       </c>
       <c r="B22" t="n">
-        <v>230.46</v>
+        <v>227.56</v>
       </c>
       <c r="C22" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="D22" t="n">
-        <v>-82.89</v>
+        <v>-110.21</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.15</v>
+        <v>-32.41</v>
       </c>
       <c r="F22" t="n">
-        <v>85.55</v>
+        <v>114.88</v>
       </c>
       <c r="G22" t="n">
-        <v>0.29</v>
+        <v>0.28</v>
       </c>
       <c r="H22" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="I22" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.57</v>
+        <v>0.59</v>
       </c>
       <c r="L22" t="n">
-        <v>4.06</v>
+        <v>4.17</v>
       </c>
       <c r="M22" t="n">
-        <v>0.00942</v>
+        <v>0.56262</v>
       </c>
       <c r="N22" t="n">
-        <v>0.00942</v>
+        <v>0.00262</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>44701.36638701389</v>
+        <v>44701.89999548611</v>
       </c>
       <c r="B23" t="n">
-        <v>230.35</v>
+        <v>226.98</v>
       </c>
       <c r="C23" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="D23" t="n">
-        <v>-83.92</v>
+        <v>-99.66</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.17</v>
+        <v>-31.72</v>
       </c>
       <c r="F23" t="n">
-        <v>87.06</v>
+        <v>104.59</v>
       </c>
       <c r="G23" t="n">
-        <v>0.26</v>
+        <v>0.28</v>
       </c>
       <c r="H23" t="n">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="I23" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0.58</v>
+        <v>0.55</v>
       </c>
       <c r="L23" t="n">
-        <v>4.39</v>
+        <v>4.19</v>
       </c>
       <c r="M23" t="n">
-        <v>0.009730000000000001</v>
+        <v>0.56298</v>
       </c>
       <c r="N23" t="n">
-        <v>0.009730000000000001</v>
+        <v>0.00298</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>44701.36653087963</v>
+        <v>44701.90013949074</v>
       </c>
       <c r="B24" t="n">
-        <v>229.92</v>
+        <v>228.29</v>
       </c>
       <c r="C24" t="n">
-        <v>0.32</v>
+        <v>0.48</v>
       </c>
       <c r="D24" t="n">
-        <v>-73.34</v>
+        <v>-105.95</v>
       </c>
       <c r="E24" t="n">
-        <v>-13.51</v>
+        <v>27.92</v>
       </c>
       <c r="F24" t="n">
-        <v>74.56999999999999</v>
+        <v>109.57</v>
       </c>
       <c r="G24" t="n">
-        <v>0.28</v>
+        <v>-0.28</v>
       </c>
       <c r="H24" t="n">
-        <v>0.98</v>
+        <v>-0.97</v>
       </c>
       <c r="I24" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="L24" t="n">
-        <v>4.3</v>
+        <v>4.24</v>
       </c>
       <c r="M24" t="n">
-        <v>0.009990000000000001</v>
+        <v>0.56336</v>
       </c>
       <c r="N24" t="n">
-        <v>0.009990000000000001</v>
+        <v>0.00336</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>44701.36667487268</v>
+        <v>44701.90244184028</v>
       </c>
       <c r="B25" t="n">
-        <v>230.27</v>
+        <v>228.82</v>
       </c>
       <c r="C25" t="n">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="D25" t="n">
-        <v>-76.28</v>
+        <v>-105.92</v>
       </c>
       <c r="E25" t="n">
-        <v>-17.47</v>
+        <v>-25.76</v>
       </c>
       <c r="F25" t="n">
-        <v>78.25</v>
+        <v>109</v>
       </c>
       <c r="G25" t="n">
-        <v>0.28</v>
+        <v>0.3</v>
       </c>
       <c r="H25" t="n">
         <v>0.97</v>
       </c>
       <c r="I25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.55549</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.00549</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>44701.90258575232</v>
+      </c>
+      <c r="B26" t="n">
+        <v>228.87</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-91.89</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-27.43</v>
+      </c>
+      <c r="F26" t="n">
+        <v>95.89</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.55582</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.00582</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>44701.90272971065</v>
+      </c>
+      <c r="B27" t="n">
+        <v>227.21</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-102.94</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-27.14</v>
+      </c>
+      <c r="F27" t="n">
+        <v>106.46</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.55619</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.00619</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>44701.90287361111</v>
+      </c>
+      <c r="B28" t="n">
+        <v>228.04</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-95.61</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-22.34</v>
+      </c>
+      <c r="F28" t="n">
+        <v>98.19</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.55654</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.00654</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>44701.90301751158</v>
+      </c>
+      <c r="B29" t="n">
+        <v>226.79</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-99.65000000000001</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-25.77</v>
+      </c>
+      <c r="F29" t="n">
+        <v>102.93</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.55689</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.00689</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>44701.90316138889</v>
+      </c>
+      <c r="B30" t="n">
+        <v>229.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-94.88</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-27.09</v>
+      </c>
+      <c r="F30" t="n">
+        <v>98.67</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L30" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.55724</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.00724</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>44701.9033053125</v>
+      </c>
+      <c r="B31" t="n">
+        <v>226.55</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-90.8</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-27.02</v>
+      </c>
+      <c r="F31" t="n">
+        <v>94.73999999999999</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.5575599999999999</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.00756</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>44701.90344920139</v>
+      </c>
+      <c r="B32" t="n">
+        <v>229.05</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-96.47</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-27.11</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100.21</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.55791</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.00791</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>44701.90359311343</v>
+      </c>
+      <c r="B33" t="n">
+        <v>229</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-108.15</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-29.55</v>
+      </c>
+      <c r="F33" t="n">
+        <v>112.12</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.0083</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>44701.90373701389</v>
+      </c>
+      <c r="B34" t="n">
+        <v>226.9</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-94.23999999999999</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-26.85</v>
+      </c>
+      <c r="F34" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.55864</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.00864</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>44701.90388096065</v>
+      </c>
+      <c r="B35" t="n">
+        <v>227.7</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-93.16</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-25.69</v>
+      </c>
+      <c r="F35" t="n">
+        <v>96.64</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.55898</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.00898</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>44701.90402484954</v>
+      </c>
+      <c r="B36" t="n">
+        <v>229.22</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-93.98</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-27.57</v>
+      </c>
+      <c r="F36" t="n">
+        <v>97.94</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I36" t="n">
         <v>0.87</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.57</v>
       </c>
-      <c r="L25" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.01027</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0.01027</v>
+      <c r="L36" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.55932</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.00932</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>44701.90416872685</v>
+      </c>
+      <c r="B37" t="n">
+        <v>227.13</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-93.64</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-26.68</v>
+      </c>
+      <c r="F37" t="n">
+        <v>97.37</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.55965</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.009650000000000001</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>44701.90431265046</v>
+      </c>
+      <c r="B38" t="n">
+        <v>229.37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-107.02</v>
+      </c>
+      <c r="E38" t="n">
+        <v>27.87</v>
+      </c>
+      <c r="F38" t="n">
+        <v>110.59</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.97</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.56004</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.01004</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>44701.90445657408</v>
+      </c>
+      <c r="B39" t="n">
+        <v>227.67</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-97.15000000000001</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-31.17</v>
+      </c>
+      <c r="F39" t="n">
+        <v>102.02</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.5603900000000001</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.01039</v>
       </c>
     </row>
   </sheetData>
@@ -2526,7 +3318,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2646,354 +3438,970 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44701.36202195602</v>
+        <v>44701.37511726852</v>
       </c>
       <c r="B3" t="n">
-        <v>229.95</v>
+        <v>228.53</v>
       </c>
       <c r="C3" t="n">
-        <v>0.41</v>
+        <v>0.32</v>
       </c>
       <c r="D3" t="n">
-        <v>-91.14</v>
+        <v>-70.75</v>
       </c>
       <c r="E3" t="n">
-        <v>-22.87</v>
+        <v>-13.93</v>
       </c>
       <c r="F3" t="n">
-        <v>93.95999999999999</v>
+        <v>72.11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="H3" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="I3" t="n">
         <v>0.86</v>
       </c>
       <c r="J3" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="L3" t="n">
-        <v>4.27</v>
+        <v>4.9</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00033</v>
+        <v>0.00337</v>
       </c>
       <c r="N3" t="n">
-        <v>0.00033</v>
+        <v>0.00337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>44701.36216581018</v>
+        <v>44701.88613252315</v>
       </c>
       <c r="B4" t="n">
-        <v>228.28</v>
+        <v>228.59</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="D4" t="n">
-        <v>-86.56</v>
+        <v>-113.94</v>
       </c>
       <c r="E4" t="n">
-        <v>-26.18</v>
+        <v>-28.86</v>
       </c>
       <c r="F4" t="n">
-        <v>90.43000000000001</v>
+        <v>117.54</v>
       </c>
       <c r="G4" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I4" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J4" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="K4" t="n">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="L4" t="n">
-        <v>5.01</v>
+        <v>4.57</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00065</v>
+        <v>0.5904700000000001</v>
       </c>
       <c r="N4" t="n">
-        <v>0.00065</v>
+        <v>0.00047</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>44701.36324508102</v>
+        <v>44701.89606180556</v>
       </c>
       <c r="B5" t="n">
-        <v>230.98</v>
+        <v>229.71</v>
       </c>
       <c r="C5" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="D5" t="n">
-        <v>-92.92</v>
+        <v>-83.5</v>
       </c>
       <c r="E5" t="n">
-        <v>-18.98</v>
+        <v>-24.22</v>
       </c>
       <c r="F5" t="n">
-        <v>94.84</v>
+        <v>86.94</v>
       </c>
       <c r="G5" t="n">
-        <v>0.26</v>
+        <v>0.29</v>
       </c>
       <c r="H5" t="n">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="I5" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J5" t="n">
-        <v>0.27</v>
+        <v>0.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="L5" t="n">
-        <v>4.46</v>
+        <v>4.1</v>
       </c>
       <c r="M5" t="n">
-        <v>0.00316</v>
+        <v>0.65188</v>
       </c>
       <c r="N5" t="n">
-        <v>0.00316</v>
+        <v>0.00188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>44701.36338898148</v>
+        <v>44701.89627747685</v>
       </c>
       <c r="B6" t="n">
-        <v>230.41</v>
+        <v>321.1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.41</v>
+        <v>0.36</v>
       </c>
       <c r="D6" t="n">
-        <v>-91.39</v>
+        <v>-113.96</v>
       </c>
       <c r="E6" t="n">
-        <v>-26.81</v>
+        <v>25.76</v>
       </c>
       <c r="F6" t="n">
-        <v>95.23999999999999</v>
+        <v>116.84</v>
       </c>
       <c r="G6" t="n">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="H6" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="I6" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J6" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="K6" t="n">
-        <v>0.58</v>
+        <v>0.59</v>
       </c>
       <c r="L6" t="n">
-        <v>4.46</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00349</v>
+        <v>0.65249</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00349</v>
+        <v>0.00249</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>44701.36353292824</v>
+        <v>44701.90052305556</v>
       </c>
       <c r="B7" t="n">
-        <v>228.65</v>
+        <v>228.14</v>
       </c>
       <c r="C7" t="n">
-        <v>0.39</v>
+        <v>0.43</v>
       </c>
       <c r="D7" t="n">
-        <v>-86.63</v>
+        <v>-94.59999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>-20.69</v>
+        <v>-26.86</v>
       </c>
       <c r="F7" t="n">
-        <v>89.06999999999999</v>
+        <v>98.33</v>
       </c>
       <c r="G7" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.26</v>
       </c>
-      <c r="H7" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.27</v>
-      </c>
       <c r="K7" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="L7" t="n">
-        <v>4.49</v>
+        <v>4.67</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0038</v>
+        <v>0.59035</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0038</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44701.36684268519</v>
+        <v>44701.90066697916</v>
       </c>
       <c r="B8" t="n">
-        <v>230.87</v>
+        <v>227.93</v>
       </c>
       <c r="C8" t="n">
-        <v>0.34</v>
+        <v>0.48</v>
       </c>
       <c r="D8" t="n">
-        <v>-73.66</v>
+        <v>-105.74</v>
       </c>
       <c r="E8" t="n">
-        <v>-27.51</v>
+        <v>-25.1</v>
       </c>
       <c r="F8" t="n">
-        <v>78.62</v>
+        <v>108.68</v>
       </c>
       <c r="G8" t="n">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="I8" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J8" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="K8" t="n">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="L8" t="n">
-        <v>4.75</v>
+        <v>4.52</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00991</v>
+        <v>0.59073</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00991</v>
+        <v>0.00073</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>44701.36698652778</v>
+        <v>44701.90081087963</v>
       </c>
       <c r="B9" t="n">
-        <v>229.15</v>
+        <v>228.78</v>
       </c>
       <c r="C9" t="n">
-        <v>0.36</v>
+        <v>0.45</v>
       </c>
       <c r="D9" t="n">
-        <v>-78.58</v>
+        <v>-100.83</v>
       </c>
       <c r="E9" t="n">
-        <v>-22.27</v>
+        <v>-24.13</v>
       </c>
       <c r="F9" t="n">
-        <v>81.68000000000001</v>
+        <v>103.68</v>
       </c>
       <c r="G9" t="n">
         <v>0.26</v>
       </c>
       <c r="H9" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="I9" t="n">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="J9" t="n">
         <v>0.27</v>
       </c>
       <c r="K9" t="n">
-        <v>0.59</v>
+        <v>0.64</v>
       </c>
       <c r="L9" t="n">
-        <v>4.4</v>
+        <v>4.49</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01019</v>
+        <v>0.5911</v>
       </c>
       <c r="N9" t="n">
-        <v>0.01019</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>44701.36713042961</v>
+        <v>44701.90095480324</v>
       </c>
       <c r="B10" t="n">
-        <v>230.8</v>
+        <v>227.93</v>
       </c>
       <c r="C10" t="n">
-        <v>0.34</v>
+        <v>0.45</v>
       </c>
       <c r="D10" t="n">
-        <v>-75.20999999999999</v>
+        <v>-97.84999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.04</v>
+        <v>-28.6</v>
       </c>
       <c r="F10" t="n">
-        <v>77.58</v>
+        <v>101.94</v>
       </c>
       <c r="G10" t="n">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="H10" t="n">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="I10" t="n">
         <v>0.86</v>
       </c>
       <c r="J10" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.59145</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.00145</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>44701.90109868056</v>
+      </c>
+      <c r="B11" t="n">
+        <v>228.47</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-99.98999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-28.62</v>
+      </c>
+      <c r="F11" t="n">
+        <v>104.01</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L11" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.5918099999999999</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.00181</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>44701.90462439815</v>
+      </c>
+      <c r="B12" t="n">
+        <v>226.69</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-96.68000000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>26.99</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100.38</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.29</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.6003500000000001</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.01035</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>44701.90476831018</v>
+      </c>
+      <c r="B13" t="n">
+        <v>228.37</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-98.29000000000001</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-22.9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100.92</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L13" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.60071</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.01071</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>44701.90491232639</v>
+      </c>
+      <c r="B14" t="n">
+        <v>226.94</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-94.62</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-29.56</v>
+      </c>
+      <c r="F14" t="n">
+        <v>99.13</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.28</v>
       </c>
-      <c r="K10" t="n">
+      <c r="H14" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.60105</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.01105</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>44701.9050561574</v>
+      </c>
+      <c r="B15" t="n">
+        <v>229.65</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-104.1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-30.1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>108.37</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.60142</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.01142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>44701.90520011574</v>
+      </c>
+      <c r="B16" t="n">
+        <v>226.71</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-92.33</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-29.02</v>
+      </c>
+      <c r="F16" t="n">
+        <v>96.78</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.60176</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.01176</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>44701.90534395834</v>
+      </c>
+      <c r="B17" t="n">
+        <v>226.64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-85.08</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-28.98</v>
+      </c>
+      <c r="F17" t="n">
+        <v>89.88</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.59</v>
       </c>
-      <c r="L10" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.01046</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.01046</v>
+      <c r="L17" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.60206</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.01206</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>44701.90548787037</v>
+      </c>
+      <c r="B18" t="n">
+        <v>226.06</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-86.98</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-25.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>90.52</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.60238</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.01238</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>44701.90563179398</v>
+      </c>
+      <c r="B19" t="n">
+        <v>229.51</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-82.95</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-24.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>86.43000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.60268</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.01268</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>44701.90577574074</v>
+      </c>
+      <c r="B20" t="n">
+        <v>229.57</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-85.47</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-24.31</v>
+      </c>
+      <c r="F20" t="n">
+        <v>88.86</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.60298</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.01298</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>44701.90591957176</v>
+      </c>
+      <c r="B21" t="n">
+        <v>226.32</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-80.18000000000001</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="F21" t="n">
+        <v>83.48999999999999</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.60327</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01327</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>44701.90606349537</v>
+      </c>
+      <c r="B22" t="n">
+        <v>228.4</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-85.56</v>
+      </c>
+      <c r="E22" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="F22" t="n">
+        <v>89.06</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.96</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.60358</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.01358</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>44701.90620741898</v>
+      </c>
+      <c r="B23" t="n">
+        <v>225.56</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-81.29000000000001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-24.81</v>
+      </c>
+      <c r="F23" t="n">
+        <v>84.98999999999999</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.60387</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.01387</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>44701.90635135343</v>
+      </c>
+      <c r="B24" t="n">
+        <v>228.27</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-87.75</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-23.49</v>
+      </c>
+      <c r="F24" t="n">
+        <v>90.84</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.60419</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.01419</v>
       </c>
     </row>
   </sheetData>
@@ -3833,7 +5241,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI3"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4054,113 +5462,6 @@
       </c>
       <c r="L2" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>44701.36478357639</v>
-      </c>
-      <c r="B3" t="n">
-        <v>232.1033628964252</v>
-      </c>
-      <c r="C3" t="n">
-        <v>231.448921171157</v>
-      </c>
-      <c r="D3" t="n">
-        <v>230.7944794458887</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.4167659114064202</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.4126763793075037</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.4085868472085871</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-88.23122858757</v>
-      </c>
-      <c r="I3" t="n">
-        <v>-89.40613163985549</v>
-      </c>
-      <c r="J3" t="n">
-        <v>-90.58103469214096</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-23.68685225300729</v>
-      </c>
-      <c r="L3" t="n">
-        <v>-24.1119639271656</v>
-      </c>
-      <c r="M3" t="n">
-        <v>-24.53707560132392</v>
-      </c>
-      <c r="N3" t="n">
-        <v>96.73276957802376</v>
-      </c>
-      <c r="O3" t="n">
-        <v>95.46609980505231</v>
-      </c>
-      <c r="P3" t="n">
-        <v>94.19943003208085</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="R3" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="S3" t="n">
-        <v>-0.99</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.2602321192343994</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.2458313435479251</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.2314305678614508</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.8739579780328223</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.871277657258658</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0.8685973364844938</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.2884002358501814</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0.2787156599343195</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0.2690310840184575</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.6245047932409016</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0.5974930732542701</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0.5704813532676387</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>4.932493145846093</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>4.700995288043231</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>4.469497430240367</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0.6161916336243178</v>
       </c>
     </row>
   </sheetData>
@@ -4399,52 +5700,52 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>44701.36459151621</v>
+        <v>44701.89589699074</v>
       </c>
       <c r="B3" t="n">
-        <v>231.5374159192055</v>
+        <v>229.8976692237617</v>
       </c>
       <c r="C3" t="n">
-        <v>231.0217647251069</v>
+        <v>229.3637821781822</v>
       </c>
       <c r="D3" t="n">
-        <v>230.5061135310084</v>
+        <v>228.8298951326028</v>
       </c>
       <c r="E3" t="n">
-        <v>0.518419176344978</v>
+        <v>0.3852507134386425</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5081133605094645</v>
+        <v>0.3731009366681478</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4978075446739509</v>
+        <v>0.3609511598976531</v>
       </c>
       <c r="H3" t="n">
-        <v>-86.82979506936887</v>
+        <v>-78.16503266761212</v>
       </c>
       <c r="I3" t="n">
-        <v>-86.87943952682802</v>
+        <v>-78.22548144467913</v>
       </c>
       <c r="J3" t="n">
-        <v>-86.92908398428717</v>
+        <v>-78.28593022174613</v>
       </c>
       <c r="K3" t="n">
-        <v>-21.76289753699552</v>
+        <v>-19.50325473355546</v>
       </c>
       <c r="L3" t="n">
-        <v>-22.25648356394721</v>
+        <v>-19.9841946050932</v>
       </c>
       <c r="M3" t="n">
-        <v>-22.7500695908989</v>
+        <v>-20.46513447663095</v>
       </c>
       <c r="N3" t="n">
-        <v>118.8544775686283</v>
+        <v>88.56824108633526</v>
       </c>
       <c r="O3" t="n">
-        <v>116.8010799889173</v>
+        <v>85.47740952491228</v>
       </c>
       <c r="P3" t="n">
-        <v>114.7476824092063</v>
+        <v>82.38657796348927</v>
       </c>
       <c r="Q3" t="n">
         <v>-0.99</v>
@@ -4456,22 +5757,22 @@
         <v>-0.99</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2337519180090225</v>
+        <v>0.286619316414681</v>
       </c>
       <c r="U3" t="n">
-        <v>0.2326207681939038</v>
+        <v>0.2852947025827447</v>
       </c>
       <c r="V3" t="n">
-        <v>0.231489618378785</v>
+        <v>0.2839700887508083</v>
       </c>
       <c r="W3" t="n">
-        <v>0.8670246192964746</v>
+        <v>0.8821832774408435</v>
       </c>
       <c r="X3" t="n">
-        <v>0.865610356989864</v>
+        <v>0.8805726922688065</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.8641960946832534</v>
+        <v>0.8789621070967696</v>
       </c>
       <c r="Z3" t="n">
         <v>0</v>
@@ -4483,25 +5784,25 @@
         <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.6335272178058623</v>
+        <v>0.5779001169302217</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.6295516391358065</v>
+        <v>0.5774599213530306</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.6255760604657506</v>
+        <v>0.5770197257758395</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.897436839457907</v>
+        <v>4.153311213456934</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.879121056319327</v>
+        <v>4.109277328317241</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.860805273180747</v>
+        <v>4.065243443177546</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.006190790833434922</v>
+        <v>0.581451821396414</v>
       </c>
     </row>
   </sheetData>
